--- a/src/Controllers/Sheet/templates/sheet-template.xlsx
+++ b/src/Controllers/Sheet/templates/sheet-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8D25A2-A6C1-4D7D-AA3E-9D97375EB2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C4CFB-40E2-4A06-BB01-81BB93C61A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CDE337-A4A4-4202-BDB0-1B9F047ECC56}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>Código</t>
   </si>
   <si>
-    <t>Símbulo</t>
-  </si>
-  <si>
     <t>Data das cotações</t>
   </si>
   <si>
     <t>Horário do relatório</t>
+  </si>
+  <si>
+    <t>Símbolo</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -566,10 +566,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/Controllers/Sheet/templates/sheet-template.xlsx
+++ b/src/Controllers/Sheet/templates/sheet-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C4CFB-40E2-4A06-BB01-81BB93C61A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A187A-47FD-4B08-BBFB-C13FDAB8BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CDE337-A4A4-4202-BDB0-1B9F047ECC56}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Moeda</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Código</t>
-  </si>
-  <si>
-    <t>Data das cotações</t>
-  </si>
-  <si>
-    <t>Horário do relatório</t>
   </si>
   <si>
     <t>Símbolo</t>
@@ -59,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,15 +75,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2" tint="-0.89999084444715716"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,12 +86,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,28 +102,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,11 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE66C2D-1CA9-406C-B2E0-06F7FFA9C030}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -471,112 +447,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="6">
-        <v>44491</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/src/Controllers/Sheet/templates/sheet-template.xlsx
+++ b/src/Controllers/Sheet/templates/sheet-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\Victor\currency_api\src\Controllers\Sheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A187A-47FD-4B08-BBFB-C13FDAB8BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C176CD-E568-483C-868D-63256C26F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9CDE337-A4A4-4202-BDB0-1B9F047ECC56}"/>
   </bookViews>
@@ -53,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +63,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,25 +95,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,9 +423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE66C2D-1CA9-406C-B2E0-06F7FFA9C030}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -446,7 +435,7 @@
     <col min="2" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,411 +445,423 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
